--- a/data/T.xlsx
+++ b/data/T.xlsx
@@ -452,1339 +452,1339 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Daily RV</t>
+          <t>RV</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>42795.66319444445</v>
+        <v>42795.68402777778</v>
       </c>
       <c r="B2" t="n">
-        <v>73568</v>
+        <v>9624225</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01848518198190057</v>
+        <v>0.02060164085933585</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>42796.66319444445</v>
+        <v>42796.68402777778</v>
       </c>
       <c r="B3" t="n">
-        <v>28810</v>
+        <v>10029099</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02846964667315744</v>
+        <v>0.03091826518121169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>42797.66319444445</v>
+        <v>42797.68402777778</v>
       </c>
       <c r="B4" t="n">
-        <v>71550</v>
+        <v>9164442</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02371960796810956</v>
+        <v>0.02374242695770895</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>42800.66319444445</v>
+        <v>42800.68402777778</v>
       </c>
       <c r="B5" t="n">
-        <v>83654</v>
+        <v>8998620</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01768204427681911</v>
+        <v>0.01809124443276139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>42801.66319444445</v>
+        <v>42801.68402777778</v>
       </c>
       <c r="B6" t="n">
-        <v>45192</v>
+        <v>8806550</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01717154111124229</v>
+        <v>0.01853352316890747</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>42802.66319444445</v>
+        <v>42802.68402777778</v>
       </c>
       <c r="B7" t="n">
-        <v>48504</v>
+        <v>9461135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1729442238924106</v>
+        <v>0.1731378876424033</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>42803.66319444445</v>
+        <v>42803.68402777778</v>
       </c>
       <c r="B8" t="n">
-        <v>52416</v>
+        <v>9310006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02233586850141671</v>
+        <v>0.02397152506529118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>42804.66319444445</v>
+        <v>42804.68402777778</v>
       </c>
       <c r="B9" t="n">
-        <v>88125</v>
+        <v>9957598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02729469699453712</v>
+        <v>0.02728153129016724</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>42807.66319444445</v>
+        <v>42807.68402777778</v>
       </c>
       <c r="B10" t="n">
-        <v>82137</v>
+        <v>10636954</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01867115231090982</v>
+        <v>0.01948283119159433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>42808.66319444445</v>
+        <v>42808.68402777778</v>
       </c>
       <c r="B11" t="n">
-        <v>94472</v>
+        <v>11092422</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4707836070073456</v>
+        <v>0.4709001307538757</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>42809.66319444445</v>
+        <v>42809.68402777778</v>
       </c>
       <c r="B12" t="n">
-        <v>78650</v>
+        <v>10247058</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03157088566570622</v>
+        <v>0.949509018035697</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>42810.66319444445</v>
+        <v>42810.68402777778</v>
       </c>
       <c r="B13" t="n">
-        <v>71070</v>
+        <v>8820394</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01911352606199052</v>
+        <v>0.02015332517740941</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>42811.66319444445</v>
+        <v>42811.68402777778</v>
       </c>
       <c r="B14" t="n">
-        <v>57090</v>
+        <v>10286913</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0372472782836469</v>
+        <v>0.03714353308409889</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>42814.66319444445</v>
+        <v>42814.68402777778</v>
       </c>
       <c r="B15" t="n">
-        <v>52377</v>
+        <v>9359921</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02462996950234993</v>
+        <v>0.02521075572663548</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>42815.66319444445</v>
+        <v>42815.68402777778</v>
       </c>
       <c r="B16" t="n">
-        <v>102432</v>
+        <v>12219217</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03878713559977795</v>
+        <v>0.04199376884221738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>42816.66319444445</v>
+        <v>42816.68402777778</v>
       </c>
       <c r="B17" t="n">
-        <v>92560</v>
+        <v>10476256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.04233497056824661</v>
+        <v>0.04221784503081228</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>42817.66319444445</v>
+        <v>42817.68402777778</v>
       </c>
       <c r="B18" t="n">
-        <v>48416</v>
+        <v>13195884</v>
       </c>
       <c r="C18" t="n">
-        <v>0.05882918364694017</v>
+        <v>0.06182164763961101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>42818.66319444445</v>
+        <v>42818.68402777778</v>
       </c>
       <c r="B19" t="n">
-        <v>94705</v>
+        <v>15018976</v>
       </c>
       <c r="C19" t="n">
-        <v>0.09051540930792915</v>
+        <v>0.09284048448762269</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>42821.66319444445</v>
+        <v>42821.68402777778</v>
       </c>
       <c r="B20" t="n">
-        <v>126440</v>
+        <v>14735333</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07459539096838361</v>
+        <v>0.08754425150207128</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>42822.66319444445</v>
+        <v>42822.68402777778</v>
       </c>
       <c r="B21" t="n">
-        <v>39676</v>
+        <v>11586640</v>
       </c>
       <c r="C21" t="n">
-        <v>1.24155788130158</v>
+        <v>1.241642125967826</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>42823.66319444445</v>
+        <v>42823.68402777778</v>
       </c>
       <c r="B22" t="n">
-        <v>56248</v>
+        <v>10724404</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02430018137453034</v>
+        <v>0.02481588590409651</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>42824.66319444445</v>
+        <v>42824.68402777778</v>
       </c>
       <c r="B23" t="n">
-        <v>55233</v>
+        <v>10267616</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02868238652976539</v>
+        <v>0.03030606296491301</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>42825.66319444445</v>
+        <v>42825.68402777778</v>
       </c>
       <c r="B24" t="n">
-        <v>88722</v>
+        <v>10046674</v>
       </c>
       <c r="C24" t="n">
-        <v>0.02595333566613361</v>
+        <v>0.02646384473001208</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>42828.66319444445</v>
+        <v>42828.68402777778</v>
       </c>
       <c r="B25" t="n">
-        <v>72038</v>
+        <v>9746316</v>
       </c>
       <c r="C25" t="n">
-        <v>0.01799438540453994</v>
+        <v>0.01890555835057313</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>42829.66319444445</v>
+        <v>42829.68402777778</v>
       </c>
       <c r="B26" t="n">
-        <v>114600</v>
+        <v>10061110</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01832255304362215</v>
+        <v>0.01891306363104846</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>42830.66319444445</v>
+        <v>42830.68402777778</v>
       </c>
       <c r="B27" t="n">
-        <v>50960</v>
+        <v>10515915</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02108424241459114</v>
+        <v>0.02108406731013501</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>42831.66319444445</v>
+        <v>42831.68402777778</v>
       </c>
       <c r="B28" t="n">
-        <v>42144</v>
+        <v>10108891</v>
       </c>
       <c r="C28" t="n">
-        <v>0.02362902987133066</v>
+        <v>0.02532043713984508</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>42832.66319444445</v>
+        <v>42832.68402777778</v>
       </c>
       <c r="B29" t="n">
-        <v>95312</v>
+        <v>9523431</v>
       </c>
       <c r="C29" t="n">
-        <v>0.01974943439431116</v>
+        <v>0.0199521755482043</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>42835.66319444445</v>
+        <v>42835.68402777778</v>
       </c>
       <c r="B30" t="n">
-        <v>76194</v>
+        <v>10187329</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02062015155588377</v>
+        <v>0.02199772303618872</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>42836.66319444445</v>
+        <v>42836.68402777778</v>
       </c>
       <c r="B31" t="n">
-        <v>65650</v>
+        <v>9397702</v>
       </c>
       <c r="C31" t="n">
-        <v>0.01893619911313189</v>
+        <v>0.02056041452098337</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>42837.66319444445</v>
+        <v>42837.68402777778</v>
       </c>
       <c r="B32" t="n">
-        <v>89919</v>
+        <v>9930149</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3790159000001814</v>
+        <v>0.3790792692281095</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>42838.66319444445</v>
+        <v>42838.68402777778</v>
       </c>
       <c r="B33" t="n">
-        <v>104248</v>
+        <v>10233678</v>
       </c>
       <c r="C33" t="n">
-        <v>0.02925725936324032</v>
+        <v>0.03004381409435043</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>42839.66319444445</v>
+        <v>42839.68402777778</v>
       </c>
       <c r="B34" t="n">
-        <v>104248</v>
+        <v>10233678</v>
       </c>
       <c r="C34" t="n">
-        <v>0.02925725936324032</v>
+        <v>0.03004381409435043</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>42842.66319444445</v>
+        <v>42842.68402777778</v>
       </c>
       <c r="B35" t="n">
-        <v>104248</v>
+        <v>10233678</v>
       </c>
       <c r="C35" t="n">
-        <v>0.02925725936324032</v>
+        <v>0.03004381409435043</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>42843.66319444445</v>
+        <v>42843.68402777778</v>
       </c>
       <c r="B36" t="n">
-        <v>68076</v>
+        <v>10164834</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03438620846229314</v>
+        <v>0.03599184614383076</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>42844.66319444445</v>
+        <v>42844.68402777778</v>
       </c>
       <c r="B37" t="n">
-        <v>79900</v>
+        <v>9088701</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1851690033246539</v>
+        <v>0.1855397467443672</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>42845.66319444445</v>
+        <v>42845.68402777778</v>
       </c>
       <c r="B38" t="n">
-        <v>101184</v>
+        <v>11381784</v>
       </c>
       <c r="C38" t="n">
-        <v>0.02501366690659566</v>
+        <v>0.02605899061447921</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>42846.66319444445</v>
+        <v>42846.68402777778</v>
       </c>
       <c r="B39" t="n">
-        <v>69788</v>
+        <v>9376419</v>
       </c>
       <c r="C39" t="n">
-        <v>0.02412217054221729</v>
+        <v>0.02439695435978233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>42849.66319444445</v>
+        <v>42849.68402777778</v>
       </c>
       <c r="B40" t="n">
-        <v>86562</v>
+        <v>9152825</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2829600667145084</v>
+        <v>0.2829599752018114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>42850.66319444445</v>
+        <v>42850.68402777778</v>
       </c>
       <c r="B41" t="n">
-        <v>92220</v>
+        <v>9843510</v>
       </c>
       <c r="C41" t="n">
-        <v>0.66837168785998</v>
+        <v>0.6683979272031427</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>42851.66319444445</v>
+        <v>42851.68402777778</v>
       </c>
       <c r="B42" t="n">
-        <v>88179</v>
+        <v>9397129</v>
       </c>
       <c r="C42" t="n">
-        <v>0.02079138974493414</v>
+        <v>0.02278766206612553</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>42852.66319444445</v>
+        <v>42852.68402777778</v>
       </c>
       <c r="B43" t="n">
-        <v>106951</v>
+        <v>10306728</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02725259799990658</v>
+        <v>0.02892545018895603</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42853.66319444445</v>
+        <v>42853.68402777778</v>
       </c>
       <c r="B44" t="n">
-        <v>63040</v>
+        <v>9730203</v>
       </c>
       <c r="C44" t="n">
-        <v>0.02587480853382763</v>
+        <v>0.02621217849160365</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42857.66319444445</v>
+        <v>42857.68402777778</v>
       </c>
       <c r="B45" t="n">
-        <v>29760</v>
+        <v>9631388</v>
       </c>
       <c r="C45" t="n">
-        <v>0.02315767131045237</v>
+        <v>0.02443421202183665</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42858.66319444445</v>
+        <v>42858.68402777778</v>
       </c>
       <c r="B46" t="n">
-        <v>84005</v>
+        <v>10690388</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3832054190514169</v>
+        <v>0.3832409917377546</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42859.66319444445</v>
+        <v>42859.68402777778</v>
       </c>
       <c r="B47" t="n">
-        <v>48165</v>
+        <v>9320835</v>
       </c>
       <c r="C47" t="n">
-        <v>0.01913822169054498</v>
+        <v>0.02109936574847044</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42860.66319444445</v>
+        <v>42860.68402777778</v>
       </c>
       <c r="B48" t="n">
-        <v>96200</v>
+        <v>8763299</v>
       </c>
       <c r="C48" t="n">
-        <v>0.02316389520123135</v>
+        <v>0.02403112967772138</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42863.66319444445</v>
+        <v>42863.68402777778</v>
       </c>
       <c r="B49" t="n">
-        <v>108747</v>
+        <v>9712398</v>
       </c>
       <c r="C49" t="n">
-        <v>0.02460495027790886</v>
+        <v>0.02498477007961489</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42864.66319444445</v>
+        <v>42864.68402777778</v>
       </c>
       <c r="B50" t="n">
-        <v>56434</v>
+        <v>11066001</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5283476157325752</v>
+        <v>0.528351675060426</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42865.66319444445</v>
+        <v>42865.68402777778</v>
       </c>
       <c r="B51" t="n">
-        <v>39150</v>
+        <v>10438200</v>
       </c>
       <c r="C51" t="n">
-        <v>0.02430372983334302</v>
+        <v>0.02523740763813749</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42866.66319444445</v>
+        <v>42866.68402777778</v>
       </c>
       <c r="B52" t="n">
-        <v>99189</v>
+        <v>8850880</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02386221105446465</v>
+        <v>0.02373725934227386</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42867.66319444445</v>
+        <v>42867.68402777778</v>
       </c>
       <c r="B53" t="n">
-        <v>90650</v>
+        <v>9068406</v>
       </c>
       <c r="C53" t="n">
-        <v>0.2192986433068071</v>
+        <v>0.2194718815144702</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42870.66319444445</v>
+        <v>42870.68402777778</v>
       </c>
       <c r="B54" t="n">
-        <v>84056</v>
+        <v>9291742</v>
       </c>
       <c r="C54" t="n">
-        <v>0.02892349848979874</v>
+        <v>0.0296708824777323</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42871.66319444445</v>
+        <v>42871.68402777778</v>
       </c>
       <c r="B55" t="n">
-        <v>81088</v>
+        <v>9283640</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6105021192135831</v>
+        <v>0.6105465089786903</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42872.66319444445</v>
+        <v>42872.68402777778</v>
       </c>
       <c r="B56" t="n">
-        <v>91350</v>
+        <v>9322040</v>
       </c>
       <c r="C56" t="n">
-        <v>0.01676858946658892</v>
+        <v>0.4270937546110186</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42873.66319444445</v>
+        <v>42873.68402777778</v>
       </c>
       <c r="B57" t="n">
-        <v>80135</v>
+        <v>9327645</v>
       </c>
       <c r="C57" t="n">
-        <v>0.01637479778915039</v>
+        <v>0.01698325389144534</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42874.66319444445</v>
+        <v>42874.68402777778</v>
       </c>
       <c r="B58" t="n">
-        <v>82173</v>
+        <v>8804890</v>
       </c>
       <c r="C58" t="n">
-        <v>0.02517505928570925</v>
+        <v>0.02600443204236298</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42877.66319444445</v>
+        <v>42877.68402777778</v>
       </c>
       <c r="B59" t="n">
-        <v>58517</v>
+        <v>9628359</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0188487630935501</v>
+        <v>0.02026258643183916</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42878.66319444445</v>
+        <v>42878.68402777778</v>
       </c>
       <c r="B60" t="n">
-        <v>52796</v>
+        <v>10793133</v>
       </c>
       <c r="C60" t="n">
-        <v>0.02129615227405137</v>
+        <v>0.02291540104528486</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42879.66319444445</v>
+        <v>42879.68402777778</v>
       </c>
       <c r="B61" t="n">
-        <v>67104</v>
+        <v>9331019</v>
       </c>
       <c r="C61" t="n">
-        <v>0.01825138766891283</v>
+        <v>0.01974669199336736</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42880.66319444445</v>
+        <v>42880.68402777778</v>
       </c>
       <c r="B62" t="n">
-        <v>72171</v>
+        <v>9551602</v>
       </c>
       <c r="C62" t="n">
-        <v>0.01786699573696194</v>
+        <v>0.01844717804056401</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42881.66319444445</v>
+        <v>42881.68402777778</v>
       </c>
       <c r="B63" t="n">
-        <v>56355</v>
+        <v>9314775</v>
       </c>
       <c r="C63" t="n">
-        <v>0.02050455651984338</v>
+        <v>0.02285788811351194</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42884.66319444445</v>
+        <v>42884.68402777778</v>
       </c>
       <c r="B64" t="n">
-        <v>76954</v>
+        <v>9127976</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01670756589878761</v>
+        <v>0.01755535364484803</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42885.66319444445</v>
+        <v>42885.68402777778</v>
       </c>
       <c r="B65" t="n">
-        <v>84078</v>
+        <v>10428714</v>
       </c>
       <c r="C65" t="n">
-        <v>0.03249569163021568</v>
+        <v>0.03329350669431746</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42886.66319444445</v>
+        <v>42886.68402777778</v>
       </c>
       <c r="B66" t="n">
-        <v>69984</v>
+        <v>10822313</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02823417602195467</v>
+        <v>0.02903677378429672</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42887.66319444445</v>
+        <v>42887.68402777778</v>
       </c>
       <c r="B67" t="n">
-        <v>83485</v>
+        <v>8936831</v>
       </c>
       <c r="C67" t="n">
-        <v>0.01850166948628034</v>
+        <v>0.02001811496815922</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42888.66319444445</v>
+        <v>42888.68402777778</v>
       </c>
       <c r="B68" t="n">
-        <v>77142</v>
+        <v>10384814</v>
       </c>
       <c r="C68" t="n">
-        <v>0.02237242284284127</v>
+        <v>0.02371613584100588</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42891.66319444445</v>
+        <v>42891.68402777778</v>
       </c>
       <c r="B69" t="n">
-        <v>52716</v>
+        <v>9363762</v>
       </c>
       <c r="C69" t="n">
-        <v>0.01849912184770558</v>
+        <v>0.01912951773363009</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42892.66319444445</v>
+        <v>42892.68402777778</v>
       </c>
       <c r="B70" t="n">
-        <v>46695</v>
+        <v>9640200</v>
       </c>
       <c r="C70" t="n">
-        <v>0.3392503029761318</v>
+        <v>0.3392755095506071</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42893.66319444445</v>
+        <v>42893.68402777778</v>
       </c>
       <c r="B71" t="n">
-        <v>68174</v>
+        <v>10465609</v>
       </c>
       <c r="C71" t="n">
-        <v>0.02500043557957163</v>
+        <v>0.02598337907596801</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42894.66319444445</v>
+        <v>42894.68402777778</v>
       </c>
       <c r="B72" t="n">
-        <v>67400</v>
+        <v>9809725</v>
       </c>
       <c r="C72" t="n">
-        <v>0.4620688499586446</v>
+        <v>0.4600355230743694</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42895.66319444445</v>
+        <v>42895.68402777778</v>
       </c>
       <c r="B73" t="n">
-        <v>77254</v>
+        <v>9683222</v>
       </c>
       <c r="C73" t="n">
-        <v>0.03232899639627081</v>
+        <v>0.03462463353637862</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42898.66319444445</v>
+        <v>42898.68402777778</v>
       </c>
       <c r="B74" t="n">
-        <v>74746</v>
+        <v>10174236</v>
       </c>
       <c r="C74" t="n">
-        <v>0.03301855938527411</v>
+        <v>0.03381199585218097</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42899.66319444445</v>
+        <v>42899.68402777778</v>
       </c>
       <c r="B75" t="n">
-        <v>65450</v>
+        <v>10207617</v>
       </c>
       <c r="C75" t="n">
-        <v>0.02978721413378103</v>
+        <v>0.03215803775050136</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42900.66319444445</v>
+        <v>42900.68402777778</v>
       </c>
       <c r="B76" t="n">
-        <v>102336</v>
+        <v>10191537</v>
       </c>
       <c r="C76" t="n">
-        <v>0.03100587072098017</v>
+        <v>0.03187647289762272</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>42901.66319444445</v>
+        <v>42901.68402777778</v>
       </c>
       <c r="B77" t="n">
-        <v>72416</v>
+        <v>8342775</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1661988487637762</v>
+        <v>0.1663067786293901</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>42902.66319444445</v>
+        <v>42902.68402777778</v>
       </c>
       <c r="B78" t="n">
-        <v>64542</v>
+        <v>10734090</v>
       </c>
       <c r="C78" t="n">
-        <v>0.02209437961065122</v>
+        <v>0.02283693999545994</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>42905.66319444445</v>
+        <v>42905.68402777778</v>
       </c>
       <c r="B79" t="n">
-        <v>79952</v>
+        <v>9728418</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0257384337366497</v>
+        <v>0.02762711988150625</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>42906.66319444445</v>
+        <v>42906.68402777778</v>
       </c>
       <c r="B80" t="n">
-        <v>62040</v>
+        <v>9547800</v>
       </c>
       <c r="C80" t="n">
-        <v>0.02898119827430896</v>
+        <v>0.02995328542572845</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>42907.66319444445</v>
+        <v>42907.68402777778</v>
       </c>
       <c r="B81" t="n">
-        <v>104528</v>
+        <v>9674335</v>
       </c>
       <c r="C81" t="n">
-        <v>0.02487664046784256</v>
+        <v>0.02556456272159556</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>42908.66319444445</v>
+        <v>42908.68402777778</v>
       </c>
       <c r="B82" t="n">
-        <v>79524</v>
+        <v>9254445</v>
       </c>
       <c r="C82" t="n">
-        <v>0.01792435397682128</v>
+        <v>0.01831244610684138</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>42909.66319444445</v>
+        <v>42909.68402777778</v>
       </c>
       <c r="B83" t="n">
-        <v>48470</v>
+        <v>9970240</v>
       </c>
       <c r="C83" t="n">
-        <v>0.2581616896934353</v>
+        <v>0.2581802691732364</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>42912.66319444445</v>
+        <v>42912.68402777778</v>
       </c>
       <c r="B84" t="n">
-        <v>18615</v>
+        <v>9061746</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3531092031664895</v>
+        <v>0.3531431670249245</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>42913.66319444445</v>
+        <v>42913.68402777778</v>
       </c>
       <c r="B85" t="n">
-        <v>69190</v>
+        <v>9458549</v>
       </c>
       <c r="C85" t="n">
-        <v>0.02918132915842016</v>
+        <v>0.02971285649115854</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>42914.66319444445</v>
+        <v>42914.68402777778</v>
       </c>
       <c r="B86" t="n">
-        <v>41904</v>
+        <v>10201725</v>
       </c>
       <c r="C86" t="n">
-        <v>0.01892886894409648</v>
+        <v>0.0200670507913168</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>42915.66319444445</v>
+        <v>42915.68402777778</v>
       </c>
       <c r="B87" t="n">
-        <v>110087</v>
+        <v>10173400</v>
       </c>
       <c r="C87" t="n">
-        <v>0.01644122852209924</v>
+        <v>0.01663378347082934</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>42916.66319444445</v>
+        <v>42916.68402777778</v>
       </c>
       <c r="B88" t="n">
-        <v>33363</v>
+        <v>9873673</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2995654023859991</v>
+        <v>0.2995881055277648</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>42919.66319444445</v>
+        <v>42919.68402777778</v>
       </c>
       <c r="B89" t="n">
-        <v>85320</v>
+        <v>10095410</v>
       </c>
       <c r="C89" t="n">
-        <v>0.01476997198098141</v>
+        <v>0.01552103349597396</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>42920.66319444445</v>
+        <v>42920.68402777778</v>
       </c>
       <c r="B90" t="n">
-        <v>88970</v>
+        <v>9740645</v>
       </c>
       <c r="C90" t="n">
-        <v>0.1447373776449053</v>
+        <v>0.1448447393944111</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>42921.66319444445</v>
+        <v>42921.68402777778</v>
       </c>
       <c r="B91" t="n">
-        <v>104002</v>
+        <v>9951011</v>
       </c>
       <c r="C91" t="n">
-        <v>0.01434835902961366</v>
+        <v>0.01516385090420486</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>42922.66319444445</v>
+        <v>42922.68402777778</v>
       </c>
       <c r="B92" t="n">
-        <v>85263</v>
+        <v>8971478</v>
       </c>
       <c r="C92" t="n">
-        <v>0.01480578257759436</v>
+        <v>0.015835579908847</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>42923.66319444445</v>
+        <v>42923.68402777778</v>
       </c>
       <c r="B93" t="n">
-        <v>67938</v>
+        <v>10056881</v>
       </c>
       <c r="C93" t="n">
-        <v>0.5412953400978106</v>
+        <v>0.541320580271384</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>42926.66319444445</v>
+        <v>42926.68402777778</v>
       </c>
       <c r="B94" t="n">
-        <v>58893</v>
+        <v>9316038</v>
       </c>
       <c r="C94" t="n">
-        <v>0.2215816002824649</v>
+        <v>0.2217111490498071</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>42927.66319444445</v>
+        <v>42927.68402777778</v>
       </c>
       <c r="B95" t="n">
-        <v>64727</v>
+        <v>8986868</v>
       </c>
       <c r="C95" t="n">
-        <v>0.02373493828186039</v>
+        <v>0.02373168851087628</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>42928.66319444445</v>
+        <v>42928.68402777778</v>
       </c>
       <c r="B96" t="n">
-        <v>71456</v>
+        <v>9670072</v>
       </c>
       <c r="C96" t="n">
-        <v>0.01854779091093389</v>
+        <v>0.02009466192993434</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>42929.66319444445</v>
+        <v>42929.68402777778</v>
       </c>
       <c r="B97" t="n">
-        <v>92444</v>
+        <v>10468506</v>
       </c>
       <c r="C97" t="n">
-        <v>0.02685672879158797</v>
+        <v>0.02798609920405663</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>42930.66319444445</v>
+        <v>42930.68402777778</v>
       </c>
       <c r="B98" t="n">
-        <v>77165</v>
+        <v>10029774</v>
       </c>
       <c r="C98" t="n">
-        <v>0.03612653154114043</v>
+        <v>0.03652920667782165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>42933.66319444445</v>
+        <v>42933.68402777778</v>
       </c>
       <c r="B99" t="n">
-        <v>83979</v>
+        <v>8659228</v>
       </c>
       <c r="C99" t="n">
-        <v>0.04782305081710149</v>
+        <v>0.04804713731814123</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>42934.66319444445</v>
+        <v>42934.68402777778</v>
       </c>
       <c r="B100" t="n">
-        <v>69901</v>
+        <v>9996141</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1724126968723441</v>
+        <v>0.172508451960093</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>42935.66319444445</v>
+        <v>42935.68402777778</v>
       </c>
       <c r="B101" t="n">
-        <v>85969</v>
+        <v>10808531</v>
       </c>
       <c r="C101" t="n">
-        <v>0.09591379411739308</v>
+        <v>0.09624960255715891</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>42936.66319444445</v>
+        <v>42936.68402777778</v>
       </c>
       <c r="B102" t="n">
-        <v>49280</v>
+        <v>9120232</v>
       </c>
       <c r="C102" t="n">
-        <v>0.3714598187045604</v>
+        <v>0.3715362094170336</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>42937.66319444445</v>
+        <v>42937.68402777778</v>
       </c>
       <c r="B103" t="n">
-        <v>60168</v>
+        <v>9049175</v>
       </c>
       <c r="C103" t="n">
-        <v>0.01851481370759659</v>
+        <v>0.01842501068266004</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>42940.66319444445</v>
+        <v>42940.68402777778</v>
       </c>
       <c r="B104" t="n">
-        <v>70738</v>
+        <v>9065918</v>
       </c>
       <c r="C104" t="n">
-        <v>0.0154857505447327</v>
+        <v>0.0155961981683184</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>42941.66319444445</v>
+        <v>42941.68402777778</v>
       </c>
       <c r="B105" t="n">
-        <v>62560</v>
+        <v>9932874</v>
       </c>
       <c r="C105" t="n">
-        <v>0.01234835946721318</v>
+        <v>0.01269235876270618</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>42942.66319444445</v>
+        <v>42942.68402777778</v>
       </c>
       <c r="B106" t="n">
-        <v>66830</v>
+        <v>8042473</v>
       </c>
       <c r="C106" t="n">
-        <v>0.01676495800035538</v>
+        <v>0.01685703478176761</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>42943.66319444445</v>
+        <v>42943.68402777778</v>
       </c>
       <c r="B107" t="n">
-        <v>50560</v>
+        <v>9504373</v>
       </c>
       <c r="C107" t="n">
-        <v>0.02108143514873925</v>
+        <v>0.02213514802628003</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>42944.66319444445</v>
+        <v>42944.68402777778</v>
       </c>
       <c r="B108" t="n">
-        <v>61950</v>
+        <v>9597805</v>
       </c>
       <c r="C108" t="n">
-        <v>0.2424231788482759</v>
+        <v>0.2424410992685122</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>42947.66319444445</v>
+        <v>42947.68402777778</v>
       </c>
       <c r="B109" t="n">
-        <v>62918</v>
+        <v>10250591</v>
       </c>
       <c r="C109" t="n">
-        <v>0.02428346674495893</v>
+        <v>0.02556116104343647</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>42948.66319444445</v>
+        <v>42948.68402777778</v>
       </c>
       <c r="B110" t="n">
-        <v>64227</v>
+        <v>8018542</v>
       </c>
       <c r="C110" t="n">
-        <v>0.0219848274519337</v>
+        <v>0.02245958997917834</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>42949.66319444445</v>
+        <v>42949.68402777778</v>
       </c>
       <c r="B111" t="n">
-        <v>99528</v>
+        <v>9063772</v>
       </c>
       <c r="C111" t="n">
-        <v>0.01787511342473661</v>
+        <v>0.01869945682608904</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>42950.66319444445</v>
+        <v>42950.68402777778</v>
       </c>
       <c r="B112" t="n">
-        <v>47396</v>
+        <v>9362436</v>
       </c>
       <c r="C112" t="n">
-        <v>0.192533281416232</v>
+        <v>0.1925537069591632</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>42951.66319444445</v>
+        <v>42951.68402777778</v>
       </c>
       <c r="B113" t="n">
-        <v>80512</v>
+        <v>9419424</v>
       </c>
       <c r="C113" t="n">
-        <v>0.01878706749775096</v>
+        <v>0.02109734606606786</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>42954.66319444445</v>
+        <v>42954.68402777778</v>
       </c>
       <c r="B114" t="n">
-        <v>70022</v>
+        <v>8796956</v>
       </c>
       <c r="C114" t="n">
-        <v>0.02377087667286987</v>
+        <v>0.02400045643615316</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>42955.66319444445</v>
+        <v>42955.68402777778</v>
       </c>
       <c r="B115" t="n">
-        <v>50730</v>
+        <v>9594278</v>
       </c>
       <c r="C115" t="n">
-        <v>0.0244246468505466</v>
+        <v>0.4888691798130269</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>42956.66319444445</v>
+        <v>42956.68402777778</v>
       </c>
       <c r="B116" t="n">
-        <v>85020</v>
+        <v>9760413</v>
       </c>
       <c r="C116" t="n">
-        <v>0.02613789394082847</v>
+        <v>0.02579848322088519</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>42957.66319444445</v>
+        <v>42957.68402777778</v>
       </c>
       <c r="B117" t="n">
-        <v>69900</v>
+        <v>9926071</v>
       </c>
       <c r="C117" t="n">
-        <v>0.01905604347780171</v>
+        <v>0.01941768731286408</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>42958.66319444445</v>
+        <v>42958.68402777778</v>
       </c>
       <c r="B118" t="n">
-        <v>69646</v>
+        <v>8721997</v>
       </c>
       <c r="C118" t="n">
-        <v>0.01910950128635598</v>
+        <v>0.0216053789642623</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>42961.66319444445</v>
+        <v>42961.68402777778</v>
       </c>
       <c r="B119" t="n">
-        <v>82895</v>
+        <v>10048972</v>
       </c>
       <c r="C119" t="n">
-        <v>0.020998626190864</v>
+        <v>0.02117426317413976</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>42962.66319444445</v>
+        <v>42962.68402777778</v>
       </c>
       <c r="B120" t="n">
-        <v>97920</v>
+        <v>10050999</v>
       </c>
       <c r="C120" t="n">
-        <v>0.1098315931486166</v>
+        <v>0.109908877550492</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>42963.66319444445</v>
+        <v>42963.68402777778</v>
       </c>
       <c r="B121" t="n">
-        <v>103704</v>
+        <v>9221533</v>
       </c>
       <c r="C121" t="n">
-        <v>0.07892279728571001</v>
+        <v>0.07906810359929883</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>42964.66319444445</v>
+        <v>42964.68402777778</v>
       </c>
       <c r="B122" t="n">
-        <v>97344</v>
+        <v>9622905</v>
       </c>
       <c r="C122" t="n">
-        <v>0.01794335695079665</v>
+        <v>0.01866923884181394</v>
       </c>
     </row>
   </sheetData>
